--- a/medicine/Sexualité et sexologie/Tout_sur_ma_mère/Tout_sur_ma_mère.xlsx
+++ b/medicine/Sexualité et sexologie/Tout_sur_ma_mère/Tout_sur_ma_mère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tout_sur_ma_m%C3%A8re</t>
+          <t>Tout_sur_ma_mère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout sur ma mère (espagnol: Todo sobre mi madre) est un film de comédie mélodramatique franco-espagnol écrit et réalisé par Pedro Almodóvar et produit par son frère Agustín Almodóvar, sorti en 1999.
 Le film est présenté en « compétition officielle » au Festival de Cannes 1999. Le film a été très bien reçu par la critique et le public, et a gagné l'Oscar du meilleur film international.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tout_sur_ma_m%C3%A8re</t>
+          <t>Tout_sur_ma_mère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les dix-sept ans de son fils unique Esteban (jeune écrivain avec qui elle vit seule), Manuela l'emmène au théâtre voir Huma Rojo, son actrice préférée, dans la pièce Un tramway nommé Désir. Mais la soirée vire au cauchemar : cherchant à obtenir un autographe de la vedette, Esteban est mortellement renversé par une voiture sous les yeux médusés de sa mère.
 Infirmière à Madrid et coordinatrice des dons d'organes, Manuela accepte, malgré sa douleur, que le cœur de son enfant soit transplanté sur un inconnu, qu'elle observe furtivement. Elle se demande ensuite quel est le but de sa vie. Très vite, elle démissionne et part pour Barcelone, ville qu'elle avait quittée 17 ans plus tôt, enceinte et seule. Elle se donne alors deux objectifs : retrouver le père biologique d'Esteban, un prostitué travesti qui se fait appeler Lola, et obtenir l'autographe d'Huma qui joue sa pièce à Barcelone.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tout_sur_ma_m%C3%A8re</t>
+          <t>Tout_sur_ma_mère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Tout sur ma mère
 Titre original : Todo sobre mi madre
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tout_sur_ma_m%C3%A8re</t>
+          <t>Tout_sur_ma_mère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cecilia Roth (V.F. : Joëlle Brover) : Manuela Echevarria
 Marisa Paredes (V.F. : Évelyn Séléna) : Huma Rojo
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tout_sur_ma_m%C3%A8re</t>
+          <t>Tout_sur_ma_mère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,7 +653,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chansons par ordre d'apparition dans le film :
 </t>
@@ -648,7 +668,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tout_sur_ma_m%C3%A8re</t>
+          <t>Tout_sur_ma_mère</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -668,8 +688,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Récompenses
-Festival de Cannes 1999 : Prix de la mise en scène pour Pedro Almodóvar
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 1999 : Prix de la mise en scène pour Pedro Almodóvar
 Prix du cinéma européen 1999 : People's Choice Award du meilleur film européen
 César 2000 : meilleur film étranger
 Prix Goya 2000 :
@@ -687,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tout_sur_ma_m%C3%A8re</t>
+          <t>Tout_sur_ma_mère</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -705,13 +730,15 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Almodóvar a dédié Tout sur ma mère à Bette Davis, Gena Rowlands, Romy Schneider et sa propre mère, Francisca Caballero (1916-1999).
 Le titre du film est une référence à Ève (All About Eve en version originale, soit « Tout sur Ève ») de Joseph L. Mankiewicz.
 La scène de l'accident est une référence directe au film Opening Night de John Cassavetes. Pedro Almodóvar y reprend, à dessein, la scénographie de l'accident : Sortie du théâtre après la représentation, scène de nuit sous une pluie battante, admirateur/admiratrice d'une actrice adulée, accident mortel pour l'admirateur/admiratrice, réactions des témoins. Une citation de cette référence apparait au générique de fin de Tout sur ma mère.
 Chose extrêmement rare, l'un des personnages trans de l'histoire (en l'occurrence Agrado) a été incarné par une femme, alors que d'habitude dans le cas d'un personnage féminin trans, un acteur masculin est choisi[réf. souhaitée].
-De nombreuses scènes ont popularisé des lieux barcelonais, comme le cimetière de Montjuïc et l'Hôpital de la Mer, situé dans le quartier de la Barceloneta[1].
+De nombreuses scènes ont popularisé des lieux barcelonais, comme le cimetière de Montjuïc et l'Hôpital de la Mer, situé dans le quartier de la Barceloneta.
 </t>
         </is>
       </c>
